--- a/HLR-projects.xlsx
+++ b/HLR-projects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Montu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Montu\Desktop\git\Dharmendra25AugST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C30DDB-9B91-486F-A6DD-6492668F8D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F2DB5-CDD2-43BF-B86F-4DE15B5AC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F646E397-0490-40B4-B9AA-2CB49351805D}"/>
   </bookViews>
@@ -3635,7 +3635,7 @@
   <dimension ref="A2:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HLR-projects.xlsx
+++ b/HLR-projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Montu\Desktop\git\Dharmendra25AugST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F2DB5-CDD2-43BF-B86F-4DE15B5AC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EEAE6B-6DFB-44A4-994B-3316E658E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F646E397-0490-40B4-B9AA-2CB49351805D}"/>
   </bookViews>
@@ -3635,7 +3635,7 @@
   <dimension ref="A2:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
